--- a/Groups3.xlsx
+++ b/Groups3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corene  </t>
+          <t xml:space="preserve">Nubia  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Myra  </t>
+          <t xml:space="preserve">Royce  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.43,-8.78</t>
+          <t>-4.39,-9.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Georgie(mother): 0544823581</t>
+          <t>Augustus(father): 0517389040</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>36.0</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.36,-6.76</t>
+          <t>-6.18,0.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:04:00</t>
+          <t>7:14:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>22.0</t>
         </is>
       </c>
     </row>
@@ -573,37 +573,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Britta  </t>
+          <t xml:space="preserve">Collette  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jamel  </t>
+          <t xml:space="preserve">Billi  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.25,-4.61</t>
+          <t>-9.7,3.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Albertine(father): 0574981040</t>
+          <t>Elias(mother): 0578741979</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:10:00</t>
+          <t>7:20:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>16.0</t>
         </is>
       </c>
     </row>
@@ -615,98 +615,140 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lorinda  </t>
+          <t xml:space="preserve">Patti  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tyron  </t>
+          <t xml:space="preserve">Lavenia  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.19,-3.15</t>
+          <t>-5.31,3.0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Teresa(grandmother): 0558587699</t>
+          <t>Jennell(mother): 0503029941</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:13:00</t>
+          <t>7:25:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>11.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ironiah</t>
+          <t xml:space="preserve">Demetra  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>mySchool</t>
+          <t xml:space="preserve">Francene  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4.45,5.0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Shir(secretary): 0523345098</t>
+          <t>Dorian(mother): 0534328089</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:22:00</t>
+          <t>7:28:00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>8.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>school</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ironiah</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>mySchool</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Shir(secretary): 0523345098</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7:36:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>time</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>22.0</t>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>36.0</t>
         </is>
       </c>
     </row>

--- a/Groups3.xlsx
+++ b/Groups3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nubia  </t>
+          <t xml:space="preserve">Trudie  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Royce  </t>
+          <t xml:space="preserve">Fleta  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-4.39,-9.47</t>
+          <t>-5.67,-9.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Augustus(father): 0517389040</t>
+          <t>Anneliese(father): 0548973345</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>56.0</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-6.18,0.92</t>
+          <t>0.19,-7.97</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:14:00</t>
+          <t>7:09:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>47.0</t>
         </is>
       </c>
     </row>
@@ -573,37 +573,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Collette  </t>
+          <t xml:space="preserve">Francisca  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Billi  </t>
+          <t xml:space="preserve">Stevie  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-9.7,3.02</t>
+          <t>5.94,3.87</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Elias(mother): 0578741979</t>
+          <t>Bernardine(mother): 0561339273</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:20:00</t>
+          <t>7:26:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>30.0</t>
         </is>
       </c>
     </row>
@@ -615,140 +615,98 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Patti  </t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lavenia  </t>
+          <t>Cohen</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-5.31,3.0</t>
+          <t>-8.14,8.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Jennell(mother): 0503029941</t>
+          <t>Bernardine(mother): 0576270618</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:25:00</t>
+          <t>7:42:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>14.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>school</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Demetra  </t>
+          <t>Ironiah</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francene  </t>
+          <t>mySchool</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-4.45,5.0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dorian(mother): 0534328089</t>
+          <t>Shir(secretary): 0523345098</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:28:00</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>8.0</t>
+          <t>7:56:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Ironiah</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>mySchool</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Shir(secretary): 0523345098</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>7:36:00</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>36.0</t>
+          <t>56.0</t>
         </is>
       </c>
     </row>

--- a/Groups3.xlsx
+++ b/Groups3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trudie  </t>
+          <t xml:space="preserve">Randolph  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fleta  </t>
+          <t xml:space="preserve">Bridgette  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-5.67,-9.91</t>
+          <t>-4,-1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Anneliese(father): 0548973345</t>
+          <t>Lenny(father): 0505536740</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>14.0</t>
         </is>
       </c>
     </row>
@@ -531,37 +531,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frankie  </t>
+          <t xml:space="preserve">Fay  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flavia  </t>
+          <t xml:space="preserve">Emilee  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.19,-7.97</t>
+          <t>-5,-2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cyrus(mother): 0522363358</t>
+          <t>Sheri(mother): 0516797453</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:09:00</t>
+          <t>7:02:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>12.0</t>
         </is>
       </c>
     </row>
@@ -573,37 +573,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francisca  </t>
+          <t xml:space="preserve">Kandis  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stevie  </t>
+          <t xml:space="preserve">Zulma  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.94,3.87</t>
+          <t>-5,-3</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bernardine(mother): 0561339273</t>
+          <t>Kylie(mother): 0575413269</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:26:00</t>
+          <t>7:04:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -615,98 +615,140 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t xml:space="preserve">Frankie  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cohen</t>
+          <t xml:space="preserve">Flavia  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-8.14,8.87</t>
+          <t>-3,-4</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bernardine(mother): 0576270618</t>
+          <t>Cyrus(mother): 0522363358</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:42:00</t>
+          <t>7:07:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ironiah</t>
+          <t xml:space="preserve">Demetra  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>mySchool</t>
+          <t xml:space="preserve">Francene  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,-3</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Shir(secretary): 0523345098</t>
+          <t>Dorian(mother): 0534328089</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:56:00</t>
+          <t>7:09:00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>school</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ironiah</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>mySchool</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Shir(secretary): 0523345098</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7:14:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>time</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>56.0</t>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>14.0</t>
         </is>
       </c>
     </row>
